--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,24 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,94 +67,85 @@
     <t>best</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
 </sst>
 </file>
@@ -521,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -640,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6948051948051948</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4166666666666667</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4074074074074074</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,169 +840,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L8">
+        <v>97</v>
+      </c>
+      <c r="M8">
+        <v>97</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3047210300429185</v>
-      </c>
-      <c r="C9">
-        <v>71</v>
-      </c>
-      <c r="D9">
-        <v>71</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>162</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L9">
-        <v>44</v>
-      </c>
-      <c r="M9">
-        <v>44</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>67</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8392857142857143</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,21 +942,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +968,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7647058823529411</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +994,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7592592592592593</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,21 +1020,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1046,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1072,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1098,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1124,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L19">
         <v>34</v>
       </c>
-      <c r="K19">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L19">
-        <v>23</v>
-      </c>
       <c r="M19">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1150,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.684931506849315</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6538461538461539</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1202,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.631578947368421</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5446009389671361</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L25">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="M25">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5069444444444444</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L27">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4728682170542636</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4666666666666667</v>
+        <v>0.3305439330543933</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4545454545454545</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,85 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
-      <c r="M32">
-        <v>15</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="L33">
-        <v>36</v>
-      </c>
-      <c r="M33">
-        <v>36</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,85 +46,85 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>credit</t>
   </si>
   <si>
     <t>hand</t>
@@ -139,13 +139,19 @@
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +652,13 @@
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6388888888888888</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5924657534246576</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1746031746031746</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>156</v>
+        <v>417</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,13 +828,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1627906976744186</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C8">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -840,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,13 +878,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -898,13 +904,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -924,13 +930,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -950,13 +956,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -976,13 +982,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1002,13 +1008,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7666666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1028,13 +1034,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1054,13 +1060,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7183098591549296</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1080,13 +1086,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7075471698113207</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1106,13 +1112,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L18">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1135,10 +1141,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1158,13 +1164,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5851063829787234</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1184,13 +1190,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1210,13 +1216,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1236,13 +1242,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5531914893617021</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1262,13 +1268,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5238095238095238</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1288,13 +1294,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5143603133159269</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L25">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M25">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1314,13 +1320,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4352941176470588</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L26">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M26">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1340,13 +1346,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4269662921348314</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1392,13 +1398,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.358974358974359</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1418,13 +1424,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3305439330543933</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L30">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1444,13 +1450,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3150684931506849</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1462,7 +1468,59 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>50</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.328125</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.301255230125523</v>
+      </c>
+      <c r="L33">
+        <v>72</v>
+      </c>
+      <c r="M33">
+        <v>72</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
